--- a/Лічильники/Народний дім с.Бережниця.xlsx
+++ b/Лічильники/Народний дім с.Бережниця.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12600"/>
+    <workbookView xWindow="480" yWindow="108" windowWidth="23256" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -423,17 +423,17 @@
   <dimension ref="A2:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.28515625" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
-    <col min="3" max="14" width="12.28515625" customWidth="1"/>
+    <col min="1" max="1" width="30.33203125" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" customWidth="1"/>
+    <col min="3" max="14" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
@@ -446,7 +446,7 @@
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
     </row>
-    <row r="4" spans="1:14" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -490,7 +490,7 @@
         <v>44920</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -524,11 +524,15 @@
       <c r="K5" s="2">
         <v>66478</v>
       </c>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
+      <c r="L5" s="2">
+        <v>66667</v>
+      </c>
+      <c r="M5" s="2">
+        <v>68019</v>
+      </c>
       <c r="N5" s="2"/>
     </row>
-    <row r="6" spans="1:14" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -562,11 +566,15 @@
       <c r="K6" s="2">
         <v>30999</v>
       </c>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
+      <c r="L6" s="2">
+        <v>31150</v>
+      </c>
+      <c r="M6" s="2">
+        <v>31766</v>
+      </c>
       <c r="N6" s="2"/>
     </row>
-    <row r="7" spans="1:14" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
@@ -600,11 +608,15 @@
       <c r="K7" s="2">
         <v>20612</v>
       </c>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
+      <c r="L7" s="2">
+        <v>20626</v>
+      </c>
+      <c r="M7" s="2">
+        <v>21068</v>
+      </c>
       <c r="N7" s="2"/>
     </row>
-    <row r="8" spans="1:14" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>2</v>
       </c>
@@ -638,11 +650,15 @@
       <c r="K8" s="2">
         <v>14865</v>
       </c>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
+      <c r="L8" s="2">
+        <v>14890</v>
+      </c>
+      <c r="M8" s="2">
+        <v>15183</v>
+      </c>
       <c r="N8" s="2"/>
     </row>
-    <row r="9" spans="1:14" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
@@ -676,11 +692,15 @@
       <c r="K9" s="2">
         <v>315</v>
       </c>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
+      <c r="L9" s="2">
+        <v>315</v>
+      </c>
+      <c r="M9" s="2">
+        <v>316</v>
+      </c>
       <c r="N9" s="2"/>
     </row>
-    <row r="10" spans="1:14" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>2</v>
       </c>
@@ -714,11 +734,15 @@
       <c r="K10" s="2">
         <v>1719</v>
       </c>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
+      <c r="L10" s="2">
+        <v>1736</v>
+      </c>
+      <c r="M10" s="2">
+        <v>1755</v>
+      </c>
       <c r="N10" s="2"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -734,7 +758,7 @@
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -750,7 +774,7 @@
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -766,7 +790,7 @@
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -782,7 +806,7 @@
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -813,7 +837,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -825,7 +849,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Лічильники/Народний дім с.Бережниця.xlsx
+++ b/Лічильники/Народний дім с.Бережниця.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="108" windowWidth="23256" windowHeight="12600"/>
+    <workbookView xWindow="480" yWindow="108" windowWidth="23256" windowHeight="12600" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="2022" sheetId="1" r:id="rId1"/>
+    <sheet name="2023" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="10">
   <si>
     <t>Номер лічильника</t>
   </si>
@@ -42,7 +42,10 @@
     <t>без зони</t>
   </si>
   <si>
-    <t xml:space="preserve">Покази ел. Лічильника народний дім с.Бережниця станом на </t>
+    <t>Покази ел. Лічильника народний дім с.Бережниця  2022 рік</t>
+  </si>
+  <si>
+    <t>Покази ел. Лічильника народний дім с.Бережниця  2023 рік</t>
   </si>
 </sst>
 </file>
@@ -422,8 +425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -530,7 +533,9 @@
       <c r="M5" s="2">
         <v>68019</v>
       </c>
-      <c r="N5" s="2"/>
+      <c r="N5" s="2">
+        <v>69029</v>
+      </c>
     </row>
     <row r="6" spans="1:14" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -572,7 +577,9 @@
       <c r="M6" s="2">
         <v>31766</v>
       </c>
-      <c r="N6" s="2"/>
+      <c r="N6" s="2">
+        <v>32206</v>
+      </c>
     </row>
     <row r="7" spans="1:14" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -614,7 +621,9 @@
       <c r="M7" s="2">
         <v>21068</v>
       </c>
-      <c r="N7" s="2"/>
+      <c r="N7" s="2">
+        <v>21468</v>
+      </c>
     </row>
     <row r="8" spans="1:14" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
@@ -656,7 +665,9 @@
       <c r="M8" s="2">
         <v>15183</v>
       </c>
-      <c r="N8" s="2"/>
+      <c r="N8" s="2">
+        <v>15353</v>
+      </c>
     </row>
     <row r="9" spans="1:14" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
@@ -698,7 +709,9 @@
       <c r="M9" s="2">
         <v>316</v>
       </c>
-      <c r="N9" s="2"/>
+      <c r="N9" s="2">
+        <v>316</v>
+      </c>
     </row>
     <row r="10" spans="1:14" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
@@ -740,7 +753,9 @@
       <c r="M10" s="2">
         <v>1755</v>
       </c>
-      <c r="N10" s="2"/>
+      <c r="N10" s="2">
+        <v>1765</v>
+      </c>
     </row>
     <row r="11" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
@@ -833,12 +848,199 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A2:N10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="30.33203125" customWidth="1"/>
+    <col min="2" max="14" width="12.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="4" spans="1:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
+        <v>44951</v>
+      </c>
+      <c r="D4" s="3">
+        <v>44982</v>
+      </c>
+      <c r="E4" s="3">
+        <v>45010</v>
+      </c>
+      <c r="F4" s="3">
+        <v>45041</v>
+      </c>
+      <c r="G4" s="3">
+        <v>45071</v>
+      </c>
+      <c r="H4" s="3">
+        <v>45102</v>
+      </c>
+      <c r="I4" s="3">
+        <v>45132</v>
+      </c>
+      <c r="J4" s="3">
+        <v>45163</v>
+      </c>
+      <c r="K4" s="3">
+        <v>45194</v>
+      </c>
+      <c r="L4" s="3">
+        <v>45224</v>
+      </c>
+      <c r="M4" s="3">
+        <v>45255</v>
+      </c>
+      <c r="N4" s="3">
+        <v>45285</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+    </row>
+    <row r="6" spans="1:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+    </row>
+    <row r="7" spans="1:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+    </row>
+    <row r="9" spans="1:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+    </row>
+    <row r="10" spans="1:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:I2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Лічильники/Народний дім с.Бережниця.xlsx
+++ b/Лічильники/Народний дім с.Бережниця.xlsx
@@ -426,7 +426,7 @@
   <dimension ref="A2:N15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD10"/>
+      <selection activeCell="N4" sqref="N4:N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -848,19 +848,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:N10"/>
+  <dimension ref="A2:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30.33203125" customWidth="1"/>
-    <col min="2" max="14" width="12.77734375" customWidth="1"/>
+    <col min="2" max="15" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
@@ -872,8 +872,9 @@
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
-    </row>
-    <row r="4" spans="1:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J2" s="5"/>
+    </row>
+    <row r="4" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -881,51 +882,58 @@
         <v>1</v>
       </c>
       <c r="C4" s="3">
+        <v>44920</v>
+      </c>
+      <c r="D4" s="3">
         <v>44951</v>
       </c>
-      <c r="D4" s="3">
+      <c r="E4" s="3">
         <v>44982</v>
       </c>
-      <c r="E4" s="3">
+      <c r="F4" s="3">
         <v>45010</v>
       </c>
-      <c r="F4" s="3">
+      <c r="G4" s="3">
         <v>45041</v>
       </c>
-      <c r="G4" s="3">
+      <c r="H4" s="3">
         <v>45071</v>
       </c>
-      <c r="H4" s="3">
+      <c r="I4" s="3">
         <v>45102</v>
       </c>
-      <c r="I4" s="3">
+      <c r="J4" s="3">
         <v>45132</v>
       </c>
-      <c r="J4" s="3">
+      <c r="K4" s="3">
         <v>45163</v>
       </c>
-      <c r="K4" s="3">
+      <c r="L4" s="3">
         <v>45194</v>
       </c>
-      <c r="L4" s="3">
+      <c r="M4" s="3">
         <v>45224</v>
       </c>
-      <c r="M4" s="3">
+      <c r="N4" s="3">
         <v>45255</v>
       </c>
-      <c r="N4" s="3">
+      <c r="O4" s="3">
         <v>45285</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+      <c r="C5" s="2">
+        <v>69029</v>
+      </c>
+      <c r="D5" s="2">
+        <v>70383</v>
+      </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -936,16 +944,21 @@
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
-    </row>
-    <row r="6" spans="1:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O5" s="2"/>
+    </row>
+    <row r="6" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+      <c r="C6" s="2">
+        <v>32206</v>
+      </c>
+      <c r="D6" s="2">
+        <v>32748</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -956,16 +969,21 @@
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
-    </row>
-    <row r="7" spans="1:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O6" s="2"/>
+    </row>
+    <row r="7" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+      <c r="C7" s="2">
+        <v>21468</v>
+      </c>
+      <c r="D7" s="2">
+        <v>22080</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -976,16 +994,21 @@
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+      <c r="C8" s="2">
+        <v>15353</v>
+      </c>
+      <c r="D8" s="2">
+        <v>15554</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -996,16 +1019,21 @@
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
-    </row>
-    <row r="9" spans="1:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O8" s="2"/>
+    </row>
+    <row r="9" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+      <c r="C9" s="2">
+        <v>316</v>
+      </c>
+      <c r="D9" s="2">
+        <v>316</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -1016,16 +1044,21 @@
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
-    </row>
-    <row r="10" spans="1:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O9" s="2"/>
+    </row>
+    <row r="10" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+      <c r="C10" s="2">
+        <v>1765</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1781</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -1036,10 +1069,11 @@
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A2:J2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Лічильники/Народний дім с.Бережниця.xlsx
+++ b/Лічильники/Народний дім с.Бережниця.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\OneDrive\Документы\Лічильники\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="108" windowWidth="23256" windowHeight="12600" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2022" sheetId="1" r:id="rId1"/>
     <sheet name="2023" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -51,7 +56,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -132,6 +137,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -179,7 +187,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -214,7 +222,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -851,7 +859,7 @@
   <dimension ref="A2:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -934,7 +942,9 @@
       <c r="D5" s="2">
         <v>70383</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="E5" s="2">
+        <v>72951</v>
+      </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -959,7 +969,9 @@
       <c r="D6" s="2">
         <v>32748</v>
       </c>
-      <c r="E6" s="2"/>
+      <c r="E6" s="2">
+        <v>33927</v>
+      </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -984,9 +996,10 @@
       <c r="D7" s="2">
         <v>22080</v>
       </c>
-      <c r="E7" s="2"/>
+      <c r="E7" s="2">
+        <v>22884</v>
+      </c>
       <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -1009,7 +1022,9 @@
       <c r="D8" s="2">
         <v>15554</v>
       </c>
-      <c r="E8" s="2"/>
+      <c r="E8" s="2">
+        <v>16139</v>
+      </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -1034,7 +1049,9 @@
       <c r="D9" s="2">
         <v>316</v>
       </c>
-      <c r="E9" s="2"/>
+      <c r="E9" s="2">
+        <v>316</v>
+      </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -1059,7 +1076,9 @@
       <c r="D10" s="2">
         <v>1781</v>
       </c>
-      <c r="E10" s="2"/>
+      <c r="E10" s="2">
+        <v>1795</v>
+      </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>

--- a/Лічильники/Народний дім с.Бережниця.xlsx
+++ b/Лічильники/Народний дім с.Бережниця.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="13">
   <si>
     <t>Номер лічильника</t>
   </si>
@@ -51,6 +51,15 @@
   </si>
   <si>
     <t>Покази ел. Лічильника народний дім с.Бережниця  2023 рік</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Староста </t>
+  </si>
+  <si>
+    <t>Андрій ШВЕД</t>
+  </si>
+  <si>
+    <t>25.04.2023 р.</t>
   </si>
 </sst>
 </file>
@@ -110,7 +119,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -123,6 +132,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -445,17 +457,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
     </row>
     <row r="4" spans="1:14" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
@@ -765,7 +777,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -781,7 +793,7 @@
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
     </row>
-    <row r="12" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -797,7 +809,7 @@
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
     </row>
-    <row r="13" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -813,7 +825,7 @@
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
     </row>
-    <row r="14" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -829,7 +841,7 @@
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
     </row>
-    <row r="15" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -856,10 +868,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:O10"/>
+  <dimension ref="A2:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -869,18 +881,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
     </row>
     <row r="4" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
@@ -945,8 +957,12 @@
       <c r="E5" s="2">
         <v>72951</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+      <c r="F5" s="2">
+        <v>74918</v>
+      </c>
+      <c r="G5" s="2">
+        <v>75941</v>
+      </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -972,8 +988,12 @@
       <c r="E6" s="2">
         <v>33927</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+      <c r="F6" s="2">
+        <v>34865</v>
+      </c>
+      <c r="G6" s="2">
+        <v>35337</v>
+      </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -999,7 +1019,12 @@
       <c r="E7" s="2">
         <v>22884</v>
       </c>
-      <c r="F7" s="2"/>
+      <c r="F7" s="2">
+        <v>23411</v>
+      </c>
+      <c r="G7" s="2">
+        <v>23686</v>
+      </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -1025,8 +1050,12 @@
       <c r="E8" s="2">
         <v>16139</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+      <c r="F8" s="2">
+        <v>16641</v>
+      </c>
+      <c r="G8" s="2">
+        <v>16917</v>
+      </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -1052,8 +1081,12 @@
       <c r="E9" s="2">
         <v>316</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
+      <c r="F9" s="2">
+        <v>316</v>
+      </c>
+      <c r="G9" s="2">
+        <v>316</v>
+      </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -1079,8 +1112,12 @@
       <c r="E10" s="2">
         <v>1795</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+      <c r="F10" s="2">
+        <v>1811</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1827</v>
+      </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -1090,11 +1127,25 @@
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
     </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:J2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
